--- a/data/long_dif/P19_1-Edad-long_dif.xlsx
+++ b/data/long_dif/P19_1-Edad-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>27,98%</t>
+          <t>27,32%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>26,33%</t>
+          <t>25,86%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>33,88%</t>
+          <t>33,43%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25,64%</t>
+          <t>39,97%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>26,68%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,36%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,87%</t>
+          <t>32,14%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,31%</t>
+          <t>26,05%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>33,13%</t>
+          <t>27,02%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>21,0%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>32,79%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>32,91%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,05; 38,08</t>
+          <t>19,98; 36,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,51; 36,96</t>
+          <t>17,09; 37,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,21; 44,7</t>
+          <t>22,54; 42,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,96; 34,44</t>
+          <t>27,51; 54,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,61; 23,8</t>
+          <t>19,3; 34,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,99; 41,83</t>
+          <t>9,39; 24,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,2; 32,66</t>
+          <t>24,3; 41,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,6; 27,61</t>
+          <t>17,74; 36,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,83; 39,95</t>
+          <t>21,43; 32,77</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>15,69; 27,56</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>26,37; 38,96</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>25,18; 41,88</t>
         </is>
       </c>
     </row>
@@ -733,52 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>42,62%</t>
+          <t>42,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>43,8%</t>
+          <t>44,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>34,57%</t>
+          <t>36,75%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>50,4%</t>
+          <t>37,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>48,21%</t>
+          <t>50,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>47,49%</t>
+          <t>48,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>46,3%</t>
+          <t>46,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>45,97%</t>
+          <t>47,93%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>40,96%</t>
+          <t>46,31%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>46,69%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>41,62%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>42,87%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,4; 51,93</t>
+          <t>33,15; 51,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,32; 53,97</t>
+          <t>33,29; 55,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,91; 45,13</t>
+          <t>27,34; 48,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>41,47; 59,49</t>
+          <t>25,5; 52,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,91; 58,47</t>
+          <t>42,58; 60,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,67; 56,39</t>
+          <t>39,3; 58,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>39,62; 52,73</t>
+          <t>38,67; 55,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,56; 52,85</t>
+          <t>37,37; 58,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>35,04; 48,11</t>
+          <t>39,89; 53,05</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>39,04; 54,77</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>35,09; 48,44</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>34,66; 50,93</t>
         </is>
       </c>
     </row>
@@ -839,52 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>29,39%</t>
+          <t>30,25%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>29,87%</t>
+          <t>29,35%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>31,56%</t>
+          <t>29,82%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,96%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>35,69%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>35,4%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>26,82%</t>
+          <t>21,28%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>32,73%</t>
+          <t>26,03%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>25,91%</t>
+          <t>26,67%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>32,31%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>25,59%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>24,22%</t>
         </is>
       </c>
     </row>
@@ -897,104 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,12; 38,75</t>
+          <t>22,59; 39,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,08; 40,1</t>
+          <t>19,71; 39,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,66; 43,64</t>
+          <t>21,49; 40,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,71; 32,66</t>
+          <t>12,34; 36,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,57; 46,48</t>
+          <t>15,75; 30,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,17; 27,98</t>
+          <t>26,72; 44,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,83; 33,39</t>
+          <t>14,39; 28,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26,24; 40,28</t>
+          <t>17,96; 36,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,37; 32,69</t>
+          <t>21,55; 32,91</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>26,11; 40,36</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>19,48; 31,45</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>17,84; 33,36</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>34,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>36,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>35,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>30,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>36,38%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,61; 46,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,59; 35,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,48; 46,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,31; 35,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,64; 32,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,38; 43,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,64; 38,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,9; 31,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,37; 42,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>43,37%</t>
+          <t>37,18%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>34,29%</t>
+          <t>22,96%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>35,25%</t>
+          <t>36,91%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>43,18%</t>
+          <t>33,66%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>40,5%</t>
+          <t>24,81%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>47,14%</t>
+          <t>25,96%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>43,28%</t>
+          <t>35,77%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>37,21%</t>
+          <t>32,5%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>40,77%</t>
+          <t>30,96%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>24,36%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>36,38%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>33,09%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>33,63; 53,44</t>
+          <t>26,87; 50,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24,47; 48,95</t>
+          <t>14,95; 32,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>25,5; 44,96</t>
+          <t>27,11; 45,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>34,45; 52,61</t>
+          <t>23,35; 52,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,75; 49,15</t>
+          <t>17,78; 32,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>39,86; 54,55</t>
+          <t>18,76; 34,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>37,12; 50,1</t>
+          <t>29,12; 43,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,37; 46,15</t>
+          <t>24,4; 41,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>34,34; 46,57</t>
+          <t>24,61; 40,02</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>18,4; 30,88</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>30,17; 42,28</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>26,61; 44,64</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>41,72%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>40,51%</t>
+          <t>35,66%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>28,0%</t>
+          <t>34,37%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>30,53%</t>
+          <t>46,6%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>34,37%</t>
+          <t>43,79%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>40,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>26,15%</t>
+          <t>47,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>37,62%</t>
+          <t>46,2%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>42,76%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>37,88%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>40,42%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>46,41%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,89; 30,67</t>
+          <t>30,85; 51,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>30,04; 52,96</t>
+          <t>25,01; 51,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,78; 44,43</t>
+          <t>25,51; 44,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,09; 39,02</t>
+          <t>33,3; 58,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,06; 42,75</t>
+          <t>35,34; 52,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,49; 23,36</t>
+          <t>32,22; 49,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,99; 31,95</t>
+          <t>38,64; 54,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>30,93; 45,7</t>
+          <t>37,34; 55,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,5; 33,54</t>
+          <t>36,09; 49,88</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>30,98; 48,11</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>33,41; 47,11</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>38,57; 53,68</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>20,44%</t>
+          <t>21,1%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>36,79%</t>
+          <t>41,38%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>32,37%</t>
+          <t>28,72%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>29,66%</t>
+          <t>19,74%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>31,4%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>33,61%</t>
+          <t>33,62%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>24,93%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>27,34%</t>
+          <t>21,3%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>33,0%</t>
+          <t>26,27%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>37,75%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>23,2%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>20,5%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,09; 27,31</t>
+          <t>14,25; 30,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>28,16; 47,79</t>
+          <t>29,17; 54,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>24,83; 40,63</t>
+          <t>18,93; 45,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,7; 35,7</t>
+          <t>12,13; 30,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,83; 24,23</t>
+          <t>23,56; 40,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>28,06; 39,23</t>
+          <t>25,65; 42,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>19,73; 29,82</t>
+          <t>11,89; 23,66</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>22,23; 34,56</t>
+          <t>14,46; 29,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>28,62; 38,56</t>
+          <t>20,57; 31,77</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>30,16; 45,99</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>17,51; 33,88</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>15,0; 26,39</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>55,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>38,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>40,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>43,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>40,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>46,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>49,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>39,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>43,73%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>45,23; 66,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>29,74; 47,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>33,73; 49,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>36,82; 50,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>33,9; 47,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>40,67; 52,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>43,54; 57,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>34,23; 45,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>38,53; 48,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>22,11%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>36,13%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>26,73%</t>
+          <t>32,58%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>26,66%</t>
+          <t>19,59%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>40,94%</t>
+          <t>30,27%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>25,54%</t>
+          <t>34,26%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>33,23%</t>
+          <t>26,99%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>23,27%</t>
+          <t>26,16%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>27,02%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>33,43%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>23,44%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>17,7; 32,2</t>
+          <t>15,84; 30,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>18,57; 32,78</t>
+          <t>27,24; 47,46</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>20,16; 36,41</t>
+          <t>25,75; 41,07</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>20,97; 32,73</t>
+          <t>14,18; 26,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>34,22; 47,45</t>
+          <t>24,19; 35,99</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>15,27; 24,75</t>
+          <t>13,88; 24,24</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>20,95; 30,63</t>
+          <t>28,25; 39,59</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>28,3; 38,4</t>
+          <t>20,78; 32,95</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>19,3; 29,05</t>
+          <t>21,85; 31,52</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>22,23; 34,07</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>28,42; 38,0</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>19,01; 27,85</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>20,58%</t>
+          <t>51,24%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>21,98%</t>
+          <t>38,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>23,47%</t>
+          <t>41,84%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>27,55%</t>
+          <t>45,02%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>42,87%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>35,71%</t>
+          <t>39,5%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>24,22%</t>
+          <t>45,92%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>21,53%</t>
+          <t>47,45%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>29,72%</t>
+          <t>47,08%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>38,78%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>43,91%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>46,28%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>15,08; 26,85</t>
+          <t>41,67; 60,83</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>16,3; 29,04</t>
+          <t>28,9; 46,18</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>18,02; 29,35</t>
+          <t>34,04; 49,46</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>21,97; 34,7</t>
+          <t>36,22; 53,49</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>15,91; 27,27</t>
+          <t>36,55; 50,23</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>30,11; 41,33</t>
+          <t>33,6; 46,09</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>20,45; 28,56</t>
+          <t>40,47; 51,65</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>17,67; 26,16</t>
+          <t>40,42; 53,89</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>25,89; 33,64</t>
+          <t>40,78; 52,53</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>33,22; 43,87</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>39,22; 48,8</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>40,81; 51,77</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>52,88%</t>
+          <t>26,65%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>48,3%</t>
+          <t>25,88%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>48,93%</t>
+          <t>25,58%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>42,85%</t>
+          <t>35,39%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>44,19%</t>
+          <t>26,86%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>42,09%</t>
+          <t>41,93%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>47,64%</t>
+          <t>19,82%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>46,2%</t>
+          <t>25,57%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>45,44%</t>
+          <t>26,76%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>34,2%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>22,66%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>30,28%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>45,89; 59,25</t>
+          <t>19,76; 34,29</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>39,91; 55,91</t>
+          <t>18,88; 33,18</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>41,8; 55,74</t>
+          <t>19,39; 34,46</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>36,48; 49,25</t>
+          <t>28,35; 45,98</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>38,05; 51,07</t>
+          <t>21,13; 33,63</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>36,24; 47,99</t>
+          <t>35,8; 48,91</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>43,4; 52,43</t>
+          <t>15,59; 24,64</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>41,32; 51,28</t>
+          <t>20,27; 31,98</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>40,98; 49,49</t>
+          <t>22,8; 31,39</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>29,24; 39,7</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>18,78; 27,83</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>25,3; 35,93</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>26,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>29,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>27,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>34,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>22,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>28,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>32,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,104 +2228,134 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>20,44; 33,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>23,47; 36,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>20,98; 35,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>23,37; 35,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>28,58; 41,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>17,44; 26,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>23,99; 32,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>27,9; 36,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>20,79; 29,07</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>31,87%</t>
+          <t>20,44%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>28,48%</t>
+          <t>22,06%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>30,2%</t>
+          <t>23,27%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>25,79%</t>
+          <t>32,38%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>25,78%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>31,07%</t>
+          <t>20,9%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>28,76%</t>
+          <t>35,15%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>24,13%</t>
+          <t>28,94%</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>30,63%</t>
+          <t>23,2%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>21,47%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>29,32%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>30,67%</t>
         </is>
       </c>
     </row>
@@ -1973,47 +2368,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>24,25; 39,87</t>
+          <t>14,75; 26,66</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>21,43; 36,35</t>
+          <t>16,38; 29,21</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>24,12; 36,73</t>
+          <t>18,02; 28,58</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>19,24; 34,17</t>
+          <t>24,37; 46,55</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>12,73; 27,52</t>
+          <t>20,74; 31,89</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>24,21; 37,45</t>
+          <t>16,14; 26,95</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>23,93; 34,38</t>
+          <t>29,48; 40,86</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>18,93; 29,36</t>
+          <t>23,37; 36,06</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>26,51; 35,53</t>
+          <t>19,43; 27,19</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>17,43; 25,73</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>25,42; 33,13</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>26,03; 37,7</t>
         </is>
       </c>
     </row>
@@ -2021,52 +2431,67 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>35,04%</t>
+          <t>52,56%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>37,07%</t>
+          <t>48,45%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>48,94%</t>
+          <t>48,76%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>43,25%</t>
+          <t>45,68%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>47,08%</t>
+          <t>44,21%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>48,32%</t>
+          <t>44,84%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>39,24%</t>
+          <t>42,45%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>41,81%</t>
+          <t>44,87%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>48,63%</t>
+          <t>48,24%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>46,61%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>45,54%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>45,28%</t>
         </is>
       </c>
     </row>
@@ -2079,47 +2504,62 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>27,34; 45,58</t>
+          <t>45,45; 59,89</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>29,55; 47,19</t>
+          <t>40,95; 56,62</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>41,23; 55,46</t>
+          <t>41,72; 56,12</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>35,17; 50,97</t>
+          <t>35,94; 53,89</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>39,16; 55,64</t>
+          <t>38,01; 50,77</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>41,35; 55,22</t>
+          <t>38,44; 50,86</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>33,71; 45,37</t>
+          <t>36,52; 48,2</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>35,97; 47,53</t>
+          <t>37,51; 50,92</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>43,79; 53,77</t>
+          <t>43,42; 53,05</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>41,34; 51,71</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>41,24; 50,32</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>39,71; 50,46</t>
         </is>
       </c>
     </row>
@@ -2127,52 +2567,67 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>33,09%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>34,45%</t>
+          <t>29,48%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>20,86%</t>
+          <t>27,97%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>30,95%</t>
+          <t>21,94%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>33,64%</t>
+          <t>30,02%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>34,27%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>32,0%</t>
+          <t>22,4%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>34,07%</t>
+          <t>26,19%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>20,74%</t>
+          <t>28,56%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>31,92%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>25,13%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>24,05%</t>
         </is>
       </c>
     </row>
@@ -2185,104 +2640,130 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>24,7; 40,88</t>
+          <t>21,07; 33,07</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>26,9; 42,35</t>
+          <t>23,31; 36,63</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>15,53; 27,14</t>
+          <t>22,02; 36,12</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>23,56; 38,5</t>
+          <t>15,35; 28,63</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>26,23; 42,01</t>
+          <t>24,35; 35,94</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>15,47; 27,4</t>
+          <t>28,42; 40,86</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>26,5; 37,46</t>
+          <t>17,95; 27,55</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>28,98; 40,73</t>
+          <t>20,5; 33,4</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>16,88; 24,94</t>
+          <t>24,47; 33,34</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>27,47; 36,53</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>21,23; 30,39</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>19,69; 28,86</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>26,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>34,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>32,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>28,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>26,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>29,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>31,38%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2295,100 +2776,134 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>13,93; 29,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>17,16; 37,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>25,56; 45,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>22,59; 39,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>23,51; 42,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>20,78; 36,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>20,56; 32,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>22,58; 36,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>25,11; 37,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>48,18%</t>
+          <t>31,0%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>42,82%</t>
+          <t>28,25%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>43,76%</t>
+          <t>30,39%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>41,54%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>25,91%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>43,26%</t>
+          <t>18,95%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>44,41%</t>
+          <t>30,91%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>34,75%</t>
+          <t>23,73%</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>43,48%</t>
+          <t>28,41%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>23,84%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>30,65%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>21,61%</t>
         </is>
       </c>
     </row>
@@ -2401,47 +2916,62 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>38,47; 60,56</t>
+          <t>23,75; 39,34</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>32,34; 59,89</t>
+          <t>21,44; 35,36</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>34,47; 53,05</t>
+          <t>24,38; 37,37</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>32,94; 50,48</t>
+          <t>12,57; 29,63</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>20,98; 38,19</t>
+          <t>18,75; 33,95</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>35,01; 54,29</t>
+          <t>12,92; 26,42</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>37,36; 51,82</t>
+          <t>24,36; 37,61</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>28,05; 44,22</t>
+          <t>17,09; 31,92</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>37,03; 51,2</t>
+          <t>23,76; 33,34</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>19,21; 29,48</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>26,4; 35,5</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>17,03; 27,99</t>
         </is>
       </c>
     </row>
@@ -2449,52 +2979,67 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>30,53%</t>
+          <t>35,13%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>30,64%</t>
+          <t>37,06%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>21,84%</t>
+          <t>48,26%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>28,69%</t>
+          <t>58,51%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>39,76%</t>
+          <t>44,56%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>27,82%</t>
+          <t>47,35%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>29,49%</t>
+          <t>47,93%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>35,69%</t>
+          <t>49,3%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>25,14%</t>
+          <t>39,92%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>41,93%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>48,09%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>53,9%</t>
         </is>
       </c>
     </row>
@@ -2507,104 +3052,130 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>21,51; 40,22</t>
+          <t>26,58; 45,83</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>21,11; 42,69</t>
+          <t>29,14; 47,24</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>15,26; 29,99</t>
+          <t>40,8; 55,02</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>21,45; 37,33</t>
+          <t>49,87; 67,66</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>30,52; 52,28</t>
+          <t>36,84; 52,68</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>21,09; 36,21</t>
+          <t>38,77; 56,06</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>23,6; 35,38</t>
+          <t>40,84; 56,08</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>28,32; 44,08</t>
+          <t>40,24; 58,55</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>19,7; 31,04</t>
+          <t>34,33; 45,81</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>35,98; 47,7</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>42,86; 53,17</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>46,71; 60,71</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>33,87%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>27,74%</t>
+          <t>34,7%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>31,72%</t>
+          <t>21,35%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>27,67%</t>
+          <t>21,99%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>22,16%</t>
+          <t>29,53%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>33,0%</t>
+          <t>33,7%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>26,67%</t>
+          <t>21,16%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>24,93%</t>
+          <t>26,98%</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>32,37%</t>
+          <t>31,66%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>34,23%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>21,25%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>24,49%</t>
         </is>
       </c>
     </row>
@@ -2617,47 +3188,62 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>22,52; 29,35</t>
+          <t>26,01; 41,59</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>24,13; 31,51</t>
+          <t>27,18; 43,07</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>28,46; 35,21</t>
+          <t>16,21; 28,72</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>24,76; 30,9</t>
+          <t>15,39; 30,64</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>19,39; 25,58</t>
+          <t>22,7; 37,28</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>30,3; 35,89</t>
+          <t>26,23; 41,75</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>24,45; 29,01</t>
+          <t>16,09; 27,15</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>22,62; 27,26</t>
+          <t>18,79; 37,91</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>30,24; 34,54</t>
+          <t>26,41; 37,03</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>29,23; 39,65</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>17,24; 25,73</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>18,85; 30,8</t>
         </is>
       </c>
     </row>
@@ -2665,52 +3251,67 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>47,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>40,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>41,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>43,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>41,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>45,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>45,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>40,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>43,81%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2723,100 +3324,134 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>43,13; 51,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>36,87; 45,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>38,27; 45,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>40,64; 47,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>37,69; 44,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>42,46; 48,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>42,51; 47,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>37,97; 43,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>41,25; 46,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>21,18%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>31,49%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>26,29%</t>
+          <t>34,12%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>27,03%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>36,85%</t>
+          <t>27,41%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>32,69%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>28,35%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>34,19%</t>
+          <t>26,68%</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>23,82%</t>
+          <t>24,7%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>30,32%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>30,93%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>26,83%</t>
         </is>
       </c>
     </row>
@@ -2829,63 +3464,1041 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>23,87; 30,32</t>
+          <t>14,49; 29,55</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>27,95; 35,45</t>
+          <t>19,03; 38,0</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>22,86; 30,51</t>
+          <t>25,53; 45,19</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>25,34; 31,7</t>
+          <t>16,33; 36,98</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>33,53; 40,46</t>
+          <t>20,44; 35,87</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>19,18; 24,23</t>
+          <t>24,24; 44,38</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>25,8; 30,15</t>
+          <t>21,57; 35,98</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>31,83; 37,22</t>
+          <t>18,33; 37,94</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>21,81; 26,48</t>
+          <t>19,12; 30,44</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>23,66; 37,69</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>25,32; 37,64</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>20,11; 34,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>48,56%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>42,2%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>43,94%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>51,56%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>40,54%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>29,37%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>42,43%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>50,41%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>44,03%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>35,1%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>43,11%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>50,9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>39,12; 59,65</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>32,78; 57,52</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>34,96; 52,7</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>40,02; 64,05</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>32,65; 49,0</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>20,91; 37,76</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>34,77; 51,03</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>39,98; 62,63</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>37,81; 52,03</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>28,76; 42,69</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>36,62; 50,0</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>42,96; 58,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>30,26%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>30,41%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>21,94%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>21,41%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>32,05%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>37,94%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>29,22%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>22,91%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>31,27%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>34,58%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>25,96%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>22,27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>21,56; 39,22</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>21,23; 40,62</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>15,12; 29,82</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>13,59; 32,53</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>24,41; 41,52</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>28,41; 47,13</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>22,04; 37,5</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>14,79; 32,66</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>25,05; 37,48</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>27,86; 42,13</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>20,77; 32,13</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>16,98; 29,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>26,08%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>27,24%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>31,67%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>28,44%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>26,96%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>22,3%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>32,83%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>27,5%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>26,53%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>24,75%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>32,25%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>27,95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>22,69; 29,88</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>23,75; 31,13</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>28,05; 34,86</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>24,12; 33,03</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>24,11; 29,83</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>19,49; 25,49</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>29,72; 35,6</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>24,24; 30,77</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>24,39; 29,12</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>22,51; 27,33</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>29,92; 34,38</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>25,37; 30,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>45,94%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>41,11%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>42,26%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>47,22%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>44,09%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>41,18%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>45,26%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>47,68%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>45,0%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>41,15%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>43,77%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>47,46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>42,32; 49,88</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>37,26; 45,57</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>38,79; 45,79</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>42,91; 51,71</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>40,86; 47,27</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>37,93; 44,49</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>42,65; 48,37</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>43,86; 51,07</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>42,16; 47,29</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>38,43; 43,8</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>41,56; 46,06</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>44,67; 50,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>27,97%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>31,65%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>26,08%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>24,34%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>28,95%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>36,52%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>21,92%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>24,82%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>28,47%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>34,1%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>23,98%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>24,59%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>25,07; 31,13</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>28,02; 35,43</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>22,96; 30,31</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>20,84; 28,04</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>26,33; 31,93</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>33,55; 39,99</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>19,68; 24,46</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>21,9; 28,27</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>26,36; 30,66</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>31,61; 36,62</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>21,98; 26,54</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>22,07; 26,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
